--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F58FB1-2F45-7F40-960A-7F0E435D17DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16BD69-F09A-1847-A73F-C50C2F1D656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>NASDAQ</t>
   </si>
   <si>
-    <t>16/06/2021</t>
-  </si>
-  <si>
-    <t>1:42:00 PM</t>
-  </si>
-  <si>
-    <t>1:42:03 PM</t>
+    <t>1:42:00</t>
+  </si>
+  <si>
+    <t>1:42:03</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
   </si>
 </sst>
 </file>
@@ -49,8 +49,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="hh:mm:ss;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -85,8 +85,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -467,10 +467,10 @@
         <v>258.36</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -485,10 +485,10 @@
         <v>366.75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E16BD69-F09A-1847-A73F-C50C2F1D656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D8A3B1-CC17-2F43-AB6F-A528977F672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Price Per Share</t>
   </si>
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>1:44:00</t>
+  </si>
+  <si>
+    <t>2:00:00</t>
+  </si>
+  <si>
+    <t>2:30:00</t>
+  </si>
+  <si>
+    <t>2:25:00</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>11:10:00</t>
   </si>
 </sst>
 </file>
@@ -52,10 +82,16 @@
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="4"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -491,7 +527,161 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>270</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>259.60000000000002</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>258</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>275</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>280</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>366.5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>440</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>